--- a/heart.xlsx
+++ b/heart.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lataf\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0221F5A7-4FCE-4A84-80CA-DA6C892B316A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6540" yWindow="2592" windowWidth="19572" windowHeight="13620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6540" yWindow="2595" windowWidth="19575" windowHeight="13620"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="6">
   <si>
     <t>gender</t>
   </si>
@@ -57,7 +56,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -398,22 +397,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -427,7 +426,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -435,13 +434,13 @@
         <v>18</v>
       </c>
       <c r="C2" s="1">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D2" s="1">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -449,13 +448,13 @@
         <v>26</v>
       </c>
       <c r="C3" s="1">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D3" s="1">
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -463,51 +462,135 @@
         <v>36</v>
       </c>
       <c r="C4" s="1">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="D4" s="1">
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" s="1">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="C5" s="1">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D5" s="1">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="18" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" s="1">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="C6" s="1">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D6" s="1">
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="1">
+        <v>66</v>
+      </c>
+      <c r="C7" s="1">
+        <v>68</v>
+      </c>
+      <c r="D7" s="1">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B8" s="1">
+        <v>18</v>
+      </c>
+      <c r="C8" s="1">
+        <v>72</v>
+      </c>
+      <c r="D8" s="1">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="1">
+        <v>26</v>
+      </c>
+      <c r="C9" s="1">
+        <v>71</v>
+      </c>
+      <c r="D9" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="1">
         <v>36</v>
       </c>
-      <c r="C7" s="1">
-        <v>67</v>
-      </c>
-      <c r="D7" s="1">
+      <c r="C10" s="1">
+        <v>72</v>
+      </c>
+      <c r="D10" s="1">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="1">
+        <v>46</v>
+      </c>
+      <c r="C11" s="1">
+        <v>72</v>
+      </c>
+      <c r="D11" s="1">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="1">
+        <v>56</v>
+      </c>
+      <c r="C12" s="1">
+        <v>71</v>
+      </c>
+      <c r="D12" s="1">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="1">
+        <v>66</v>
+      </c>
+      <c r="C13" s="1">
+        <v>71</v>
+      </c>
+      <c r="D13" s="1">
         <v>81</v>
       </c>
     </row>
